--- a/Daily Schedule/Daily-Work-Schedule.xlsx
+++ b/Daily Schedule/Daily-Work-Schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\worklog\Project Process library\Daily Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PRE\gitlibrary\Project-Process-library\Daily Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -509,7 +509,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -518,7 +518,9 @@
     <col min="2" max="2" width="4.625" customWidth="1"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
     <col min="4" max="4" width="40.625" customWidth="1"/>
-    <col min="5" max="7" width="18.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="30.625" customWidth="1"/>
   </cols>
@@ -590,8 +592,12 @@
       <c r="D5" s="14"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>20170407</v>
+      </c>
       <c r="I5" s="13"/>
       <c r="J5" s="6"/>
     </row>
